--- a/simulacion_JPM.xlsx
+++ b/simulacion_JPM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>283.9400024414062</v>
+      </c>
+      <c r="C2" t="n">
         <v>283.885009765625</v>
       </c>
-      <c r="C2" t="n">
-        <v>234.0668678489408</v>
-      </c>
       <c r="D2" t="n">
-        <v>238.4558423497531</v>
+        <v>282.9173840958459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>283.2200012207031</v>
+      </c>
+      <c r="C3" t="n">
         <v>283.9400024414062</v>
       </c>
-      <c r="C3" t="n">
-        <v>286.5401825807581</v>
-      </c>
       <c r="D3" t="n">
-        <v>286.1974727509294</v>
+        <v>294.485928141514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>283.5799865722656</v>
+      </c>
+      <c r="C4" t="n">
         <v>283.2200012207031</v>
       </c>
-      <c r="C4" t="n">
-        <v>281.1129217643777</v>
-      </c>
       <c r="D4" t="n">
-        <v>276.9935721897437</v>
+        <v>278.66844766402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>283.0199890136719</v>
+      </c>
+      <c r="C5" t="n">
         <v>283.5799865722656</v>
       </c>
-      <c r="C5" t="n">
-        <v>287.2103804429925</v>
-      </c>
       <c r="D5" t="n">
-        <v>284.1787974916774</v>
+        <v>278.6722002174581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>282.7900085449219</v>
+      </c>
+      <c r="C6" t="n">
         <v>283.0199890136719</v>
       </c>
-      <c r="C6" t="n">
-        <v>283.8427869444821</v>
-      </c>
       <c r="D6" t="n">
-        <v>287.161070113371</v>
+        <v>279.846387524925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>283.0400085449219</v>
+      </c>
+      <c r="C7" t="n">
         <v>282.7900085449219</v>
       </c>
-      <c r="C7" t="n">
-        <v>279.9152426436191</v>
-      </c>
       <c r="D7" t="n">
-        <v>279.7442550527539</v>
+        <v>286.7017277114304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>285.6199951171875</v>
+      </c>
+      <c r="C8" t="n">
         <v>283.0400085449219</v>
       </c>
-      <c r="C8" t="n">
-        <v>282.2577372293165</v>
-      </c>
       <c r="D8" t="n">
-        <v>288.7523975923763</v>
+        <v>283.0819289931062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>286.9500122070312</v>
+      </c>
+      <c r="C9" t="n">
         <v>285.6199951171875</v>
       </c>
-      <c r="C9" t="n">
-        <v>280.4861224302468</v>
-      </c>
       <c r="D9" t="n">
-        <v>292.2044368800451</v>
+        <v>276.7136237333615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>287.2099914550781</v>
+      </c>
+      <c r="C10" t="n">
         <v>286.9500122070312</v>
       </c>
-      <c r="C10" t="n">
-        <v>287.7993246181569</v>
-      </c>
       <c r="D10" t="n">
-        <v>296.4203074629154</v>
+        <v>285.9455160428381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>287.3500061035156</v>
+      </c>
+      <c r="C11" t="n">
         <v>287.2099914550781</v>
       </c>
-      <c r="C11" t="n">
-        <v>289.0861097846212</v>
-      </c>
       <c r="D11" t="n">
-        <v>286.4985482161572</v>
+        <v>285.544055400027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>287.5599975585938</v>
+      </c>
+      <c r="C12" t="n">
         <v>287.3500061035156</v>
       </c>
-      <c r="C12" t="n">
-        <v>288.0267890685632</v>
-      </c>
       <c r="D12" t="n">
-        <v>288.5175053633889</v>
+        <v>288.041512361188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>287.9450073242188</v>
+      </c>
+      <c r="C13" t="n">
         <v>287.5599975585938</v>
       </c>
-      <c r="C13" t="n">
-        <v>283.1317792601793</v>
-      </c>
       <c r="D13" t="n">
-        <v>282.8884581732326</v>
+        <v>283.1223701249718</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>288.0950012207031</v>
+      </c>
+      <c r="C14" t="n">
         <v>287.9450073242188</v>
       </c>
-      <c r="C14" t="n">
-        <v>291.9655825105536</v>
-      </c>
       <c r="D14" t="n">
-        <v>291.5457676350653</v>
+        <v>289.3544638487778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>285.3599853515625</v>
+      </c>
+      <c r="C15" t="n">
         <v>288.0950012207031</v>
       </c>
-      <c r="C15" t="n">
-        <v>290.448055224456</v>
-      </c>
       <c r="D15" t="n">
-        <v>288.859922125901</v>
+        <v>282.5655250833711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>286.0950012207031</v>
+      </c>
+      <c r="C16" t="n">
         <v>285.3599853515625</v>
       </c>
-      <c r="C16" t="n">
-        <v>282.9261697866206</v>
-      </c>
       <c r="D16" t="n">
-        <v>293.2783856903582</v>
+        <v>294.4982778093452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>286.25</v>
+      </c>
+      <c r="C17" t="n">
         <v>286.0950012207031</v>
       </c>
-      <c r="C17" t="n">
-        <v>280.0482014758174</v>
-      </c>
       <c r="D17" t="n">
-        <v>283.3596445188624</v>
+        <v>286.9545434440288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="C18" t="n">
         <v>286.25</v>
       </c>
-      <c r="C18" t="n">
-        <v>288.0868018185035</v>
-      </c>
       <c r="D18" t="n">
-        <v>283.5576901982024</v>
+        <v>294.0256109447321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>286.5450134277344</v>
+      </c>
+      <c r="C19" t="n">
         <v>286.7000122070312</v>
       </c>
-      <c r="C19" t="n">
-        <v>286.0980705394468</v>
-      </c>
       <c r="D19" t="n">
-        <v>280.3642556770345</v>
+        <v>286.2124809091559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>286.9505920410156</v>
+      </c>
+      <c r="C20" t="n">
         <v>286.5450134277344</v>
       </c>
-      <c r="C20" t="n">
-        <v>283.0098103097928</v>
-      </c>
       <c r="D20" t="n">
-        <v>285.2238777595403</v>
+        <v>280.9820255135897</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>286.7099914550781</v>
+      </c>
+      <c r="C21" t="n">
         <v>286.9505920410156</v>
       </c>
-      <c r="C21" t="n">
-        <v>291.0013019457697</v>
-      </c>
       <c r="D21" t="n">
-        <v>287.8893072177258</v>
+        <v>297.1051758949924</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>287.1499938964844</v>
+      </c>
+      <c r="C22" t="n">
         <v>286.7099914550781</v>
       </c>
-      <c r="C22" t="n">
-        <v>288.9674510241853</v>
-      </c>
       <c r="D22" t="n">
-        <v>284.1409754053549</v>
+        <v>284.3581615373283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>288.1199951171875</v>
+      </c>
+      <c r="C23" t="n">
         <v>287.1499938964844</v>
       </c>
-      <c r="C23" t="n">
-        <v>290.3295538688236</v>
-      </c>
       <c r="D23" t="n">
-        <v>285.7271802264501</v>
+        <v>286.4229552677923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>288.2699890136719</v>
+      </c>
+      <c r="C24" t="n">
         <v>288.1199951171875</v>
       </c>
-      <c r="C24" t="n">
-        <v>292.4388400033879</v>
-      </c>
       <c r="D24" t="n">
-        <v>283.0646769428659</v>
+        <v>284.7697823027374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>289.1099853515625</v>
+      </c>
+      <c r="C25" t="n">
         <v>288.2699890136719</v>
       </c>
-      <c r="C25" t="n">
-        <v>287.5801764856857</v>
-      </c>
       <c r="D25" t="n">
-        <v>286.1501309059949</v>
+        <v>285.4067617662777</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>288.4400024414062</v>
+      </c>
+      <c r="C26" t="n">
         <v>289.1099853515625</v>
       </c>
-      <c r="C26" t="n">
-        <v>289.9321875899323</v>
-      </c>
       <c r="D26" t="n">
-        <v>288.9668913522654</v>
+        <v>288.6322468223087</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>288.3999938964844</v>
+      </c>
+      <c r="C27" t="n">
         <v>288.4400024414062</v>
       </c>
-      <c r="C27" t="n">
-        <v>287.8466354871546</v>
-      </c>
       <c r="D27" t="n">
-        <v>296.6151936418732</v>
+        <v>288.6033369807128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>288.6799926757812</v>
+      </c>
+      <c r="C28" t="n">
         <v>288.3999938964844</v>
       </c>
-      <c r="C28" t="n">
-        <v>295.6479400443324</v>
-      </c>
       <c r="D28" t="n">
-        <v>293.7297488505926</v>
+        <v>277.5393936133036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>287.5799865722656</v>
+      </c>
+      <c r="C29" t="n">
         <v>288.6799926757812</v>
       </c>
-      <c r="C29" t="n">
-        <v>286.862833721518</v>
-      </c>
       <c r="D29" t="n">
-        <v>288.8693371505962</v>
+        <v>278.4177521205455</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>287.0499877929688</v>
+      </c>
+      <c r="C30" t="n">
         <v>287.5799865722656</v>
       </c>
-      <c r="C30" t="n">
-        <v>282.3701547049394</v>
-      </c>
       <c r="D30" t="n">
-        <v>286.1450912060615</v>
+        <v>297.0202864193549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>286.739990234375</v>
+      </c>
+      <c r="C31" t="n">
         <v>287.0499877929688</v>
       </c>
-      <c r="C31" t="n">
-        <v>284.1294051573662</v>
-      </c>
       <c r="D31" t="n">
-        <v>281.4204012894224</v>
+        <v>291.6851385350887</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>286.4252014160156</v>
+      </c>
+      <c r="C32" t="n">
         <v>286.739990234375</v>
       </c>
-      <c r="C32" t="n">
-        <v>290.1539297928189</v>
-      </c>
       <c r="D32" t="n">
-        <v>296.457548073592</v>
+        <v>288.8684018728767</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>286.6000061035156</v>
+      </c>
+      <c r="C33" t="n">
         <v>286.4252014160156</v>
       </c>
-      <c r="C33" t="n">
-        <v>282.4388974072261</v>
-      </c>
       <c r="D33" t="n">
-        <v>291.7512843727428</v>
+        <v>281.9299627668753</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>286.7049865722656</v>
+      </c>
+      <c r="C34" t="n">
         <v>286.6000061035156</v>
       </c>
-      <c r="C34" t="n">
-        <v>288.1170261040783</v>
-      </c>
       <c r="D34" t="n">
-        <v>288.6545833857546</v>
+        <v>286.2776708586654</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="C35" t="n">
         <v>286.7049865722656</v>
       </c>
-      <c r="C35" t="n">
-        <v>284.6636872729601</v>
-      </c>
       <c r="D35" t="n">
-        <v>280.4629363353811</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>286.2999877929688</v>
-      </c>
-      <c r="C36" t="n">
-        <v>285.084334585695</v>
-      </c>
-      <c r="D36" t="n">
-        <v>287.7522691190372</v>
+        <v>289.0007722774114</v>
       </c>
     </row>
   </sheetData>
